--- a/biology/Botanique/Belle_fille_de_Salins/Belle_fille_de_Salins.xlsx
+++ b/biology/Botanique/Belle_fille_de_Salins/Belle_fille_de_Salins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle fille de Salins est une variété de pomme.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire de Salins-les-Bains dans le Jura, obtenue par Pierre Baron au début du XXe siècle[1]. Cette variété de pomme s'est depuis répandue en Suisse, en Franche-Comté, en Alsace et dans les Vosges[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire de Salins-les-Bains dans le Jura, obtenue par Pierre Baron au début du XXe siècle. Cette variété de pomme s'est depuis répandue en Suisse, en Franche-Comté, en Alsace et dans les Vosges.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette pomme, petite à moyenne (diamètre d'environ cinq centimètres) a une peau jaune paille lavée de  rouge clair, striée de rouge. La chair est blanche, fine et croquante, très juteuse, sans acidité et très parfumée avec un léger parfum d'amande[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette pomme, petite à moyenne (diamètre d'environ cinq centimètres) a une peau jaune paille lavée de  rouge clair, striée de rouge. La chair est blanche, fine et croquante, très juteuse, sans acidité et très parfumée avec un léger parfum d'amande.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le démarrage très tardif de cette variété en fait une variété adaptée aux régions à printemps froid, notamment les régions de moyenne montagne[4]. Cette variété est de plus résistante à la tavelure du pommier. Elle est habituellement conduite en haute tige où elle présente une alternance assez marquée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le démarrage très tardif de cette variété en fait une variété adaptée aux régions à printemps froid, notamment les régions de moyenne montagne. Cette variété est de plus résistante à la tavelure du pommier. Elle est habituellement conduite en haute tige où elle présente une alternance assez marquée.
 La variété est fameuse à tous points de vue (goût, résistance aux maladies et très longue conservation).
-Chaque année, à l'automne, une fête consacrée à cette variété a lieu à La Chapelle-sur-Furieuse, commune proche de Salins[5],[6].
+Chaque année, à l'automne, une fête consacrée à cette variété a lieu à La Chapelle-sur-Furieuse, commune proche de Salins,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Citron (dans le Haut-Doubs).
 </t>
